--- a/doc/task06/scrum_teamRED.xlsx
+++ b/doc/task06/scrum_teamRED.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\git\ch.bfh.bti7081.s2019.red\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD595FD-B019-4C80-8446-49D465A1F468}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C039334-B519-47A9-9EA3-2D0A5EABA34F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -968,7 +968,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1051,7 +1051,7 @@
         <v>5</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="I5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>6</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1322,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K12">
         <v>0</v>
